--- a/Datasheets/Backup.xlsx
+++ b/Datasheets/Backup.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="617">
   <si>
     <t>ID</t>
   </si>
@@ -551,6 +551,1350 @@
   </si>
   <si>
     <t>We zien een klein, ouderwets model propellervliegtuig in zwart/wit/sepia, dat vliegt door de lucht boven tropische wateren. Het vliegtuig vliegt over een eiland en dropt vrachten. Het zijn drie grote houten kisten die aan parachutes gebonden zijn. Op de kisten en de parachutes is eenzelfde overheidslogo te zien.</t>
+  </si>
+  <si>
+    <t>CHARACTER_MARK</t>
+  </si>
+  <si>
+    <t>CHARACTER_QSD</t>
+  </si>
+  <si>
+    <t>SCENE_2_1_DESCRIPTION_1</t>
+  </si>
+  <si>
+    <t>Je ontwaakt op een strand. Het zeewater is helderblauw, de zon brandt in je gezicht en je hoort het klotsen van de golven tegen de kust. Voor je zie je de wrakstukken van het vliegtuig. De TUUUUUT fade langzaam weg.</t>
+  </si>
+  <si>
+    <t>SCENE_2_1_PLAYER_1</t>
+  </si>
+  <si>
+    <t>Wat… wat is er gebeurd? Waar ben ik?</t>
+  </si>
+  <si>
+    <t>SCENE_2_1_DESCRIPTION_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je kijkt om je heen. Overal liggen wrakstukken; kapotte vliegtuigstoelen, een koffer, zuurstofmaskers etc.
+Je ligt met je benen half in het water. Je gaat staan. Wankel.
+</t>
+  </si>
+  <si>
+    <t>SCENE_2_1_PLAYER_2</t>
+  </si>
+  <si>
+    <t>Dorst. Koppijn...</t>
+  </si>
+  <si>
+    <t>SCENE_2_1_DESCRIPTION_3</t>
+  </si>
+  <si>
+    <t>Naast je ligt een rugzak. Je grijpt hem en opent het voorvakje.
+Je pakt er een telefoon uit en zet hem aan. De telefoon is gelocked. Om het te unlocken moet je de code kraken. Hier ontvouwt zich:</t>
+  </si>
+  <si>
+    <t>SCENE_2_1_DESCRIPTION_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOGICA GAME 2 </t>
+  </si>
+  <si>
+    <t>SCENE_2_2_DESCRIPTION_1</t>
+  </si>
+  <si>
+    <t>De telefoon wordt geunlocked. Hij doet raar, maar je kunt wel je laatst gebelde nummers zien. Welk nummer kies je.</t>
+  </si>
+  <si>
+    <t>SCENE_2_2_PLAYER_1</t>
+  </si>
+  <si>
+    <t>Mama</t>
+  </si>
+  <si>
+    <t>SCENE_2_2_PLAYER_2</t>
+  </si>
+  <si>
+    <t>Noodoproep</t>
+  </si>
+  <si>
+    <t>SCENE_2_2_PLAYER_3</t>
+  </si>
+  <si>
+    <t>Liefje</t>
+  </si>
+  <si>
+    <t>SCENE_2_2_PLAYER_4</t>
+  </si>
+  <si>
+    <t>Boss</t>
+  </si>
+  <si>
+    <t>SCENE_2_2_DESCRIPTION_2</t>
+  </si>
+  <si>
+    <t>Nadat je een keuze hebt gemaakt, valt de telefoon uit. Het beeld wordt zwart en water loopt eruit.</t>
+  </si>
+  <si>
+    <t>SCENE_2_2_PLAYER_5</t>
+  </si>
+  <si>
+    <t>Shit!</t>
+  </si>
+  <si>
+    <t>SCENE_2_3_PLAYER_1</t>
+  </si>
+  <si>
+    <t>Telefoon weggooien.</t>
+  </si>
+  <si>
+    <t>SCENE_2_3_PLAYER_2</t>
+  </si>
+  <si>
+    <t>Telefoon terug doen in rugzak.</t>
+  </si>
+  <si>
+    <t>SCENE_2_3_PLAYER_3</t>
+  </si>
+  <si>
+    <t>Telefoon uit elkaar halen.</t>
+  </si>
+  <si>
+    <t>SCENE_2_3_DESCRIPTION_1</t>
+  </si>
+  <si>
+    <t>Je gooit je telefoon met een grote boog in de zee.</t>
+  </si>
+  <si>
+    <t>SCENE_2_3_DESCRIPTION_2</t>
+  </si>
+  <si>
+    <t>Je stopt je telefoon weg.</t>
+  </si>
+  <si>
+    <t>SCENE_2_3_DESCRIPTION_3</t>
+  </si>
+  <si>
+    <t>Je haalt de batterij uit je telefoon en stopt vervolgens de telefoon weg.</t>
+  </si>
+  <si>
+    <t>SCENE_2_4_DESCRIPTION_1</t>
+  </si>
+  <si>
+    <t>Een grote tropische vogel vliegt rustig door de lucht. Je begint te hoesten.</t>
+  </si>
+  <si>
+    <t>SCENE_2_4_PLAYER_1</t>
+  </si>
+  <si>
+    <t>Uche uche….
+Help!!! Is daar iemand?
+Uche uche… Water!!</t>
+  </si>
+  <si>
+    <t>SCENE_2_4_DESCRIPTION_2</t>
+  </si>
+  <si>
+    <t>Dan zie je het amulet. Het ligt aan je voeten in het zand en schittert in het zonlicht.</t>
+  </si>
+  <si>
+    <t>SCENE_2_4_PLAYER_2</t>
+  </si>
+  <si>
+    <t>Wat…? Dat amulet…</t>
+  </si>
+  <si>
+    <t>SCENE_2_4_PLAYER_3</t>
+  </si>
+  <si>
+    <t>Amulet laten liggen.</t>
+  </si>
+  <si>
+    <t>SCENE_2_4_PLAYER_4</t>
+  </si>
+  <si>
+    <t>Amulet omdoen.</t>
+  </si>
+  <si>
+    <t>SCENE_2_4_PLAYER_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amulet in broekzak doen. </t>
+  </si>
+  <si>
+    <t>SCENE_2_4_DESCRIPTION_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Een golf duwt het  verder het strand op tot het je tenen raakt. </t>
+  </si>
+  <si>
+    <t>SCENE_2_4_PLAYER_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nou, vooruit dan maar… In mn broekzak. </t>
+  </si>
+  <si>
+    <t>SCENE_2_4_DESCRIPTION_4</t>
+  </si>
+  <si>
+    <t>Je pakt het amulet op.</t>
+  </si>
+  <si>
+    <t>SCENE_2_4_PLAYER_7</t>
+  </si>
+  <si>
+    <t>Je pakt het amulet op en doet het om je nek.</t>
+  </si>
+  <si>
+    <t>SCENE_2_4_PLAYER_8</t>
+  </si>
+  <si>
+    <t>Je pakt het amulet op en doet het in je zak.</t>
+  </si>
+  <si>
+    <t>SCENE_2_5_DESCRIPTION_1</t>
+  </si>
+  <si>
+    <t>De zon prikt in je ogen en je begint weer te hoesten.</t>
+  </si>
+  <si>
+    <t>SCENE_2_5_PLAYER_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ik moet water hebben. Nu! 
+Maar waar….? </t>
+  </si>
+  <si>
+    <t>SCENE_2_5_PLAYER_2</t>
+  </si>
+  <si>
+    <t>In het vliegtuigwrak.</t>
+  </si>
+  <si>
+    <t>SCENE_2_5_PLAYER_3</t>
+  </si>
+  <si>
+    <t>In de natuur.</t>
+  </si>
+  <si>
+    <t>SCENE_2_5_PLAYER_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In de aangespoelde bagage. </t>
+  </si>
+  <si>
+    <t>SCENE_2_5_DESCRIPTION_2</t>
+  </si>
+  <si>
+    <t>Je probeert het vliegtuig te naderen maar de wrakstukken blijken te ver om op te klimmen. Als het niet lukt, loop je terug naar het strand en volg je de kustlijn.</t>
+  </si>
+  <si>
+    <t>SCENE_2_5_DESCRIPTION_3</t>
+  </si>
+  <si>
+    <t>Je volgt de kustlijn.</t>
+  </si>
+  <si>
+    <t>SCENE_2_6_PLAYER_1</t>
+  </si>
+  <si>
+    <t>Ik moet een plan hebben..</t>
+  </si>
+  <si>
+    <t>SCENE_2_6_PLAYER_2</t>
+  </si>
+  <si>
+    <t>Ik ga op zoek naar water.</t>
+  </si>
+  <si>
+    <t>SCENE_2_6_PLAYER_3</t>
+  </si>
+  <si>
+    <t>Ik ga op zoek naar eten.</t>
+  </si>
+  <si>
+    <t>SCENE_2_6_PLAYER_4</t>
+  </si>
+  <si>
+    <t>Ik ga op zoek naar een werkende telefoon.</t>
+  </si>
+  <si>
+    <t>SCENE_2_6_PLAYER_5</t>
+  </si>
+  <si>
+    <t>Ik ga op zoek naar andere overlevenden.</t>
+  </si>
+  <si>
+    <t>SCENE_2_7_DESCRIPTION_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je loopt naar een koffer die langs de kustlijn ligt. </t>
+  </si>
+  <si>
+    <t>SCENE_2_7_PLAYER_1</t>
+  </si>
+  <si>
+    <t>Die koffer… misschien zit daar iets in dat me kan helpen…</t>
+  </si>
+  <si>
+    <t>SCENE_2_7_DESCRIPTION_2</t>
+  </si>
+  <si>
+    <t>Je loopt naar de koffer toe. Het is een zwart zakelijk koffertje, waarschijnlijk uit de Businessclass. Het koffertje heeft een codeslot. Hier ontvouwt zich logica puzzel 3.</t>
+  </si>
+  <si>
+    <t>SCENE_2_7_DESCRIPTION_3</t>
+  </si>
+  <si>
+    <t>LOGICA GAME 3</t>
+  </si>
+  <si>
+    <t>SCENE_2_8_DESCRIPTION_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De koffer springt open. De inhoud is nat, vies en rommelig. </t>
+  </si>
+  <si>
+    <t>SCENE_2_8_PLAYER_1</t>
+  </si>
+  <si>
+    <t>Wat een ravage…</t>
+  </si>
+  <si>
+    <t>SCENE_2_8_DESCRIPTION_2</t>
+  </si>
+  <si>
+    <t>In het koffertje ligt een aantal voorwerpen. Welke neem je mee?</t>
+  </si>
+  <si>
+    <t>SCENE_2_8_PLAYER_2</t>
+  </si>
+  <si>
+    <t>Het tijdschrift</t>
+  </si>
+  <si>
+    <t>SCENE_2_8_PLAYER_3</t>
+  </si>
+  <si>
+    <t>Het stapeltje bankbiljetten</t>
+  </si>
+  <si>
+    <t>SCENE_2_8_PLAYER_4</t>
+  </si>
+  <si>
+    <t>Kleding</t>
+  </si>
+  <si>
+    <t>SCENE_2_8_PLAYER_5</t>
+  </si>
+  <si>
+    <t>Niets</t>
+  </si>
+  <si>
+    <t>SCENE_2_8_DESCRIPTION_3</t>
+  </si>
+  <si>
+    <t>Je pakt iets uit de koffer en zoekt verder.</t>
+  </si>
+  <si>
+    <t>SCENE_2_8_DESCRIPTION_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je pakt niets uit de koffer en zoekt verder. </t>
+  </si>
+  <si>
+    <t>SCENE_2_9_DESCRIPTION_1</t>
+  </si>
+  <si>
+    <t>Onder in de koffer stuit je op een flesje met vies uitziend water. Je grijpt het flesje en draait de dop eraf. Je ruikt eraan.</t>
+  </si>
+  <si>
+    <t>SCENE_2_9_PLAYER_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gadverdamme! </t>
+  </si>
+  <si>
+    <t>SCENE_2_9_PLAYER_2</t>
+  </si>
+  <si>
+    <t>Ik drink het op.</t>
+  </si>
+  <si>
+    <t>SCENE_2_9_PLAYER_3</t>
+  </si>
+  <si>
+    <t>Ik gooi het weg.</t>
+  </si>
+  <si>
+    <t>SCENE_2_9_PLAYER_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ik bewaar alleen het flesje. </t>
+  </si>
+  <si>
+    <t>SCENE_2_9_PLAYER_5</t>
+  </si>
+  <si>
+    <t>Ik bewaar het flesje met water.</t>
+  </si>
+  <si>
+    <t>SCENE_2_9_DESCRIPTION_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je pakt drinkt het water en gooit het flesje weg. </t>
+  </si>
+  <si>
+    <t>SCENE_2_9_DESCRIPTION_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je gooit het flesje weg. </t>
+  </si>
+  <si>
+    <t>SCENE_2_9_DESCRIPTION_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je gooit het water weg en bewaart het flesje in je rugzak. </t>
+  </si>
+  <si>
+    <t>SCENE_2_9_DESCRIPTION_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je bewaart het flesje in je rugzak. </t>
+  </si>
+  <si>
+    <t>SCENE_2_10_DESCRIPTION_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je vervolgt je weg langs de kustlijn en passeert een overhangende rots. Op de rotswand zijn tekeningen te zien. Je bekijkt de rotstekeningen van dichtbij. De tekening bestaat uit een aantal complexe en abstracte figuren. Hier ontvouwt zich: </t>
+  </si>
+  <si>
+    <t>SCENE_2_10_DESCRIPTION_2</t>
+  </si>
+  <si>
+    <t>LOGICA GAME 4</t>
+  </si>
+  <si>
+    <t>SCENE_2_11_DESCRIPTION_1</t>
+  </si>
+  <si>
+    <t>Onder de rots, op het zand liggen vier objecten; een touw, een bijl, een ehbo-doos en een grote schelp.</t>
+  </si>
+  <si>
+    <t>SCENE_2_11_PLAYER_1</t>
+  </si>
+  <si>
+    <t>Ik kan maar één ding meenemen…</t>
+  </si>
+  <si>
+    <t>SCENE_2_11_PLAYER_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Het touw </t>
+  </si>
+  <si>
+    <t>SCENE_2_11_PLAYER_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De bijl  </t>
+  </si>
+  <si>
+    <t>SCENE_2_11_PLAYER_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De EHBO-doos  </t>
+  </si>
+  <si>
+    <t>SCENE_2_11_PLAYER_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Een grote, mooie schelp </t>
+  </si>
+  <si>
+    <t>SCENE_2_11_DESCRIPTION_2</t>
+  </si>
+  <si>
+    <t>Je stopt datgene wat je kiest in je rugzak.</t>
+  </si>
+  <si>
+    <t>SCENE_2_12_DESCRIPTION_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je loopt verder langs de kustlijn. </t>
+  </si>
+  <si>
+    <t>SCENE_2_12_PLAYER_1</t>
+  </si>
+  <si>
+    <t>Waar ben ik? Waar is iedereen? Wat moet ik doen?</t>
+  </si>
+  <si>
+    <t>SCENE_2_12_PLAYER_2</t>
+  </si>
+  <si>
+    <t>Een vlot maken</t>
+  </si>
+  <si>
+    <t>SCENE_2_12_PLAYER_3</t>
+  </si>
+  <si>
+    <t>Een radio of zender zoeken</t>
+  </si>
+  <si>
+    <t>SCENE_2_12_PLAYER_4</t>
+  </si>
+  <si>
+    <t>Een vuur maken</t>
+  </si>
+  <si>
+    <t>SCENE_2_12_PLAYER_5</t>
+  </si>
+  <si>
+    <t>Groot HELP schrijven in het zand</t>
+  </si>
+  <si>
+    <t>SCENE_2_13_DESCRIPTION_1</t>
+  </si>
+  <si>
+    <t>Dan hoor je ineens een angstaanjagend gekrijs.</t>
+  </si>
+  <si>
+    <t>SCENE_2_13_PLAYER_1</t>
+  </si>
+  <si>
+    <t>Wat was dat? Gekrijs…</t>
+  </si>
+  <si>
+    <t>SCENE_2_13_PLAYER_2</t>
+  </si>
+  <si>
+    <t>Wie is daar? Kom tevoorschijn!</t>
+  </si>
+  <si>
+    <t>SCENE_2_13_PLAYER_3</t>
+  </si>
+  <si>
+    <t>Is daar iemand? Heb je hulp nodig?</t>
+  </si>
+  <si>
+    <t>SCENE_2_13_PLAYER_4</t>
+  </si>
+  <si>
+    <t>Shit! Verstoppen…</t>
+  </si>
+  <si>
+    <t>SCENE_2_13_PLAYER_5</t>
+  </si>
+  <si>
+    <t>“….”</t>
+  </si>
+  <si>
+    <t>SCENE_2_14_DESCRIPTION_1</t>
+  </si>
+  <si>
+    <t>Het gekrijs komt dichterbij. Dan zie je ineens dat het een meeuw is. De meeuw fladdert en krijst bij een koffer. Met zijn snavel trekt hij aan iets. Je komt dichterbij en ziet dat de vogel een vliegtuigmaaltijd gevonden heeft. De folie van het bakje is half geopend en de vogel probeert die met zijn snavel verder te verwijderen.</t>
+  </si>
+  <si>
+    <t>SCENE_2_14_PLAYER_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ik laat de vogel </t>
+  </si>
+  <si>
+    <t>SCENE_2_14_PLAYER_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ik jaag de vogel weg  </t>
+  </si>
+  <si>
+    <t>SCENE_2_14_DESCRIPTION_2</t>
+  </si>
+  <si>
+    <t>De vogel vliegt ineens omhoog met het bakje en laat het dan voor je voeten in het zand vallen. Je raapt het op.</t>
+  </si>
+  <si>
+    <t>SCENE_2_15_DESCRIPTION_1</t>
+  </si>
+  <si>
+    <t>Je trekt de folie weg. In het bakje liggen resten van een vliegtuigmaaltijd. Het ziet er smerig uit.</t>
+  </si>
+  <si>
+    <t>SCENE_2_15_PLAYER_1</t>
+  </si>
+  <si>
+    <t>Ik eet het eten op.</t>
+  </si>
+  <si>
+    <t>SCENE_2_15_PLAYER_2</t>
+  </si>
+  <si>
+    <t>SCENE_2_15_PLAYER_3</t>
+  </si>
+  <si>
+    <t>Ik gooi het weg, bewaar het bakje.</t>
+  </si>
+  <si>
+    <t>SCENE_2_15_DESCRIPTION_2</t>
+  </si>
+  <si>
+    <t>Je neemt een hap van het eten en spuugt het dan uit.</t>
+  </si>
+  <si>
+    <t>SCENE_2_15_DESCRIPTION_3</t>
+  </si>
+  <si>
+    <t>Je gooit het eten weg en laat het bakje dan ook vallen.</t>
+  </si>
+  <si>
+    <t>SCENE_2_15_DESCRIPTION_4</t>
+  </si>
+  <si>
+    <t>Je gooit het eten weg en stopt het bakje in je rugzak.</t>
+  </si>
+  <si>
+    <t>SCENE_2_15_DESCRIPTION_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je vervolgt je weg langs de kustlijn. Je ziet dat het strand verderop overgaat in een bos en daarachter doemt een berg op. Op die berg zie je iets wat lijkt op een antenne of iets dergelijks. Je passeert de rotswand. </t>
+  </si>
+  <si>
+    <t>SCENE_2_16_DESCRIPTION_1</t>
+  </si>
+  <si>
+    <t>We zien dezelfde plek in zwart/wit/sepia. Voor ons in het zand zien we bandensporen en als we recht voor ons kijken, zien we een jaren ‘50 pick up-jeepje langzaam optrekken. Uit de autoradio klinkt ‘Mr Sandman’ van de Chordettes. In de laadbak zien we een jonge man van de achterkant met Indiana Jones-achtige hoed. Hij zit naast drie grote kisten en parachutes in de laadbak. De overheids-logo’s op de kisten en de parachutes zijn deels zichtbaar. Het jeepje rijdt recht vooruit over het zand en rijdt dan omhoog het bos in. Daar bevindt zich een primitieve ‘weg’ van uitgesleten bandensporen tussen rijen weggekapte palmbomen. Het jeepje rijdt weg over deze ‘weg’ en verdwijnt uit het oog.</t>
+  </si>
+  <si>
+    <t>SCENE_3_1_DESCRIPTION_1</t>
+  </si>
+  <si>
+    <t>Je vervolgt je weg langs de kustlijn en loopt langs de rotswand. Ineens hoor je geschreeuw.</t>
+  </si>
+  <si>
+    <t>SCENE_3_1_EVA_1</t>
+  </si>
+  <si>
+    <t>Hé, hallo!!!</t>
+  </si>
+  <si>
+    <t>SCENE_3_1_DESCRIPTION_2</t>
+  </si>
+  <si>
+    <t>Je kijkt om en nu zie je dat er achter de grote rots een inham is op het strand. In deze inham is een soort kampement gebouwd, zie je nu. Er is een zeil gespannen dat een afdakje vormt. Koffers staan er opgestapeld als stoelen en banken en in het kamp staan 5 mensen. Ze staren met grote ogen naar jou en wijzen. EVA, de stewardess komt op je afgerend.
+Als ze vlak voor je staat bekijkt ze je verbijsterd van top tot teen.</t>
+  </si>
+  <si>
+    <t>SCENE_3_1_EVA_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaat het?
+Wij dachten dat je dood was… </t>
+  </si>
+  <si>
+    <t>SCENE_3_1_PLAYER_1</t>
+  </si>
+  <si>
+    <t>O gelukkig! Ik ben niet alleen…</t>
+  </si>
+  <si>
+    <t>SCENE_3_1_EVA_3</t>
+  </si>
+  <si>
+    <t>Wij zijn de enige overlevenden van de crash! Ik ben Eva…</t>
+  </si>
+  <si>
+    <t>SCENE_3_1_PLAYER_2</t>
+  </si>
+  <si>
+    <t>Crash?</t>
+  </si>
+  <si>
+    <t>SCENE_3_1_EVA_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ons vliegtuig is drie dagen geleden neergestort. </t>
+  </si>
+  <si>
+    <t>SCENE_3_1_PLAYER_3</t>
+  </si>
+  <si>
+    <t>Drie dagen?</t>
+  </si>
+  <si>
+    <t>SCENE_3_1_PLAYER_4</t>
+  </si>
+  <si>
+    <t>Dat kan helemaal niet.</t>
+  </si>
+  <si>
+    <t>SCENE_3_1_PLAYER_5</t>
+  </si>
+  <si>
+    <t>Dat verklaart mijn dorst…</t>
+  </si>
+  <si>
+    <t>SCENE_3_1_PLAYER_6</t>
+  </si>
+  <si>
+    <t>Het is een wonder dat ik nog leef!</t>
+  </si>
+  <si>
+    <t>SCENE_3_1_PLAYER_7</t>
+  </si>
+  <si>
+    <t>Hoe gaat het met de anderen?</t>
+  </si>
+  <si>
+    <t>SCENE_3_1_EVA_5</t>
+  </si>
+  <si>
+    <t>Drie dagen alweer ja… Wij gingen er daarom ook niet meer vanuit dat er verder nog overlevenden zouden zijn.</t>
+  </si>
+  <si>
+    <t>SCENE_3_2_DESCRIPTION_1</t>
+  </si>
+  <si>
+    <t>EVA neemt je mee naar het basiskamp.</t>
+  </si>
+  <si>
+    <t>SCENE_3_2_PLAYER_1</t>
+  </si>
+  <si>
+    <t>Weten jullie al hoe het komt dat we zijn neergestort?</t>
+  </si>
+  <si>
+    <t>SCENE_3_2_EVA_1</t>
+  </si>
+  <si>
+    <t>Geen idee. Maar laten we eerst jou eens even oplappen. Je ziet er verschrikkelijk uit. Dit is ons basiskamp. We hebben water. Niet veel, maar als iedereen genoegen neemt met een paar slokjes per dag, kunnen we het hopelijk nog wel een tijdje uitzingen. Jij hebt drie dagen niks gehad, dus jij hebt recht op een heel flesje.</t>
+  </si>
+  <si>
+    <t>SCENE_3_2_PLAYER_2</t>
+  </si>
+  <si>
+    <t>Dank je wel.</t>
+  </si>
+  <si>
+    <t>SCENE_3_2_PLAYER_3</t>
+  </si>
+  <si>
+    <t>Ik wil jullie water niet opdrinken.</t>
+  </si>
+  <si>
+    <t>SCENE_3_2_PLAYER_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Een paar slokjes is meer dan genoeg. </t>
+  </si>
+  <si>
+    <t>SCENE_3_3_DESCRIPTION_1</t>
+  </si>
+  <si>
+    <t>Het basiskamp beschikt over een vliegtuigtrolley. Daarin hebben ze wat flesjes water opgeslagen. EVA pakt een flesje en overhandigt je deze. Je pakt hem aan en drinkt.</t>
+  </si>
+  <si>
+    <t>SCENE_3_3_EVA_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We zijn hier dus neergestort op een strand. Een aantal van ons is gewond. </t>
+  </si>
+  <si>
+    <t>SCENE_3_3_PLAYER_1</t>
+  </si>
+  <si>
+    <t>O jee.</t>
+  </si>
+  <si>
+    <t>SCENE_3_3_EVA_2</t>
+  </si>
+  <si>
+    <t>Ze zijn stabiel maar kunnen niet verplaatst worden.
+We hebben al en paar verkenningstochten door het bos gemaakt en het lijkt erop dat we op een eiland zitten. Maar welk eiland… Geen idee.</t>
+  </si>
+  <si>
+    <t>SCENE_3_3_PLAYER_2</t>
+  </si>
+  <si>
+    <t>The middle of nowhere…</t>
+  </si>
+  <si>
+    <t>SCENE_3_3_EVA_3</t>
+  </si>
+  <si>
+    <t>Zo zou je het kunnen omschrijven…
+We hebben hier ook geen bereik met mobiele telefoons, dus die dingen zijn waardeloos.</t>
+  </si>
+  <si>
+    <t>SCENE_3_3_PLAYER_3</t>
+  </si>
+  <si>
+    <t>De mijne is ook dood…</t>
+  </si>
+  <si>
+    <t>SCENE_3_3_EVA_4</t>
+  </si>
+  <si>
+    <t>We willen hier weg. Dat staat voorop. Maar in de tussentijd moeten we wel zien te overleven.</t>
+  </si>
+  <si>
+    <t>SCENE_3_3_PLAYER_4</t>
+  </si>
+  <si>
+    <t>Ja, dat snap ik.</t>
+  </si>
+  <si>
+    <t>SCENE_3_3_EVA_5</t>
+  </si>
+  <si>
+    <t>We hebben er nogal wat discussie over gehad. Zoeken naar voedsel en water, een manier vinden om hier weg te komen… Wat heeft nu prioriteit…?
+Wat denk jij dat we als eerste moeten doen?</t>
+  </si>
+  <si>
+    <t>SCENE_3_3_PLAYER_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voedsel en water </t>
+  </si>
+  <si>
+    <t>SCENE_3_3_PLAYER_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hulp zoeken </t>
+  </si>
+  <si>
+    <t>SCENE_3_3_PLAYER_7</t>
+  </si>
+  <si>
+    <t>Een vlot bouwen</t>
+  </si>
+  <si>
+    <t>SCENE_3_4_EVA_1</t>
+  </si>
+  <si>
+    <t>Ja, dat kan…
+Dit onderwerp zorgt in onze groep voor veel discussies en het is duidelijk dat we voorlopig nergens heengaan…</t>
+  </si>
+  <si>
+    <t>SCENE_3_4_PLAYER_1</t>
+  </si>
+  <si>
+    <t>Wat afschuwelijk.</t>
+  </si>
+  <si>
+    <t>SCENE_3_4_PLAYER_2</t>
+  </si>
+  <si>
+    <t>Een uitdaging.</t>
+  </si>
+  <si>
+    <t>SCENE_3_4_PLAYER_3</t>
+  </si>
+  <si>
+    <t>Als we samenwerken moet dat lukken.</t>
+  </si>
+  <si>
+    <t>SCENE_3_4_PLAYER_4</t>
+  </si>
+  <si>
+    <t>Ik kan prima overleven hier.</t>
+  </si>
+  <si>
+    <t>SCENE_3_4_EVA_2</t>
+  </si>
+  <si>
+    <t>Tot zover redden we het, maar de voorraden gaan wel snel op.</t>
+  </si>
+  <si>
+    <t>SCENE_3_5_EVA_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We hebben onze voorraad hier opgeslagen en we hebben met elkaar afgesproken dat we vanuit hier op zoek gaan naar water en voedsel. Elke dag verdelen we de taken. Er blijven altijd twee mensen hier om de rantsoenen te en de gewonden te bewaken. De rest gaat op expeditie. Als je water of voedsel inbrengt, heb je recht op rantsoen. </t>
+  </si>
+  <si>
+    <t>SCENE_3_5_PLAYER_1</t>
+  </si>
+  <si>
+    <t>Slim.</t>
+  </si>
+  <si>
+    <t>SCENE_3_5_PLAYER_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wat een onzin. </t>
+  </si>
+  <si>
+    <t>SCENE_3_5_PLAYER_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daar doe ik niet aan mee. </t>
+  </si>
+  <si>
+    <t>SCENE_3_5_DESCRIPTION_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVA kijkt je streng aan. </t>
+  </si>
+  <si>
+    <t>SCENE_3_5_EVA_2</t>
+  </si>
+  <si>
+    <t>(kattig) Had jij een beter idee?</t>
+  </si>
+  <si>
+    <t>SCENE_3_6_DESCRIPTION_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVA zucht. </t>
+  </si>
+  <si>
+    <t>SCENE_3_6_EVA_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We willen je er graag bij hebben. Je ziet er sterk uit. </t>
+  </si>
+  <si>
+    <t>SCENE_3_6_PLAYER_1</t>
+  </si>
+  <si>
+    <t>Prima. Ik doe mee.</t>
+  </si>
+  <si>
+    <t>SCENE_3_6_EVA_2</t>
+  </si>
+  <si>
+    <t>Dan wil ik je eerst vragen je bezittingen in te leveren.</t>
+  </si>
+  <si>
+    <t>SCENE_3_6_PLAYER_2</t>
+  </si>
+  <si>
+    <t>Natuurlijk! Alsjeblieft.</t>
+  </si>
+  <si>
+    <t>SCENE_3_6_PLAYER_3</t>
+  </si>
+  <si>
+    <t>Waarom?</t>
+  </si>
+  <si>
+    <t>SCENE_3_6_PLAYER_4</t>
+  </si>
+  <si>
+    <t>Dat doe ik niet.</t>
+  </si>
+  <si>
+    <t>SCENE_3_6_DESCRIPTION_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je overhandigt je rugzak aan EVA. EVA lacht. </t>
+  </si>
+  <si>
+    <t>SCENE_3_6_EVA_3</t>
+  </si>
+  <si>
+    <t>Fijn. Dank je.</t>
+  </si>
+  <si>
+    <t>SCENE_3_6_DESCRIPTION_3</t>
+  </si>
+  <si>
+    <t>Ze keert de tas om en geeft je de lege tas terug.</t>
+  </si>
+  <si>
+    <t>SCENE_3_6_DESCRIPTION_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVA knikt bedenkelijk. </t>
+  </si>
+  <si>
+    <t>SCENE_3_6_EVA_4</t>
+  </si>
+  <si>
+    <t>We zijn hier allemaal gelijk. Niemand heeft privébezittingen. Als je je tas niet geeft heb je geen recht meer op water of voedsel.</t>
+  </si>
+  <si>
+    <t>SCENE_3_6_DESCRIPTION_5</t>
+  </si>
+  <si>
+    <t>Je overhandigt EVA de rugzak.
+Ze keert de tas om en geeft je de lege tas terug.</t>
+  </si>
+  <si>
+    <t>SCENE_3_7_EVA_1</t>
+  </si>
+  <si>
+    <t>Als je mee wilt doen, betekent dat dat wij straks samen op expeditie gaan. Wat zijn dingen waarmee jij kunt bijdragen aan de groep?</t>
+  </si>
+  <si>
+    <t>SCENE_3_7_PLAYER_1</t>
+  </si>
+  <si>
+    <t>Op de uitkijk staan.</t>
+  </si>
+  <si>
+    <t>SCENE_3_7_PLAYER_2</t>
+  </si>
+  <si>
+    <t>Eetbare planten en vruchten zoeken.</t>
+  </si>
+  <si>
+    <t>SCENE_3_7_PLAYER_3</t>
+  </si>
+  <si>
+    <t>Dieren vangen en doden.</t>
+  </si>
+  <si>
+    <t>SCENE_3_7_PLAYER_4</t>
+  </si>
+  <si>
+    <t>Vuur maken.</t>
+  </si>
+  <si>
+    <t>SCENE_3_7_EVA_2</t>
+  </si>
+  <si>
+    <t>Dat is fijn! Daar hebben we wat aan.</t>
+  </si>
+  <si>
+    <t>SCENE_3_8_DESCRIPTION_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVA wijst op een aantal tassen en koffers die ongeopend op een berg ligt. </t>
+  </si>
+  <si>
+    <t>SCENE_3_8_EVA_1</t>
+  </si>
+  <si>
+    <t>Die bagage heb ik vanmorgen gevonden. We moeten ze openmaken en controleren of er voedsel of water in zit. Wil jij meehelpen?</t>
+  </si>
+  <si>
+    <t>SCENE_3_8_PLAYER_1</t>
+  </si>
+  <si>
+    <t>Ja hoor</t>
+  </si>
+  <si>
+    <t>SCENE_3_8_PLAYER_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ik wil liever eerst even bijkomen </t>
+  </si>
+  <si>
+    <t>SCENE_3_8_DESCRIPTION_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVA lacht vriendelijk en wijst naar een tas. </t>
+  </si>
+  <si>
+    <t>SCENE_3_8_DESCRIPTION_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVA draait met haar ogen en begint zelf. </t>
+  </si>
+  <si>
+    <t>SCENE_3_8_EVA_2</t>
+  </si>
+  <si>
+    <t>Neem je tijd. We zullen je kracht nog nodig hebben.</t>
+  </si>
+  <si>
+    <t>SCENE_3_9_DESCRIPTION_1</t>
+  </si>
+  <si>
+    <t>EVA gooit je een tas toe. Je opent een tas. Er zit een lunchpakketje in en een flesje water.</t>
+  </si>
+  <si>
+    <t>SCENE_3_9_PLAYER_1</t>
+  </si>
+  <si>
+    <t>Ik stop het snel in mijn tas</t>
+  </si>
+  <si>
+    <t>SCENE_3_9_PLAYER_2</t>
+  </si>
+  <si>
+    <t>Ik eet en drink het stiekem op</t>
+  </si>
+  <si>
+    <t>SCENE_3_9_PLAYER_3</t>
+  </si>
+  <si>
+    <t>Ik geef het aan Eva</t>
+  </si>
+  <si>
+    <t>SCENE_3_9_PLAYER_4</t>
+  </si>
+  <si>
+    <t>Ik laat mijn vondst aan iedereen zien.</t>
+  </si>
+  <si>
+    <t>SCENE_3_9_DESCRIPTION_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je pakt het lunchpakketje snel weg. EVA ziet het niet. </t>
+  </si>
+  <si>
+    <t>SCENE_3_9_DESCRIPTION_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je geeft het lunchpakketje en het flesje aan EVA. </t>
+  </si>
+  <si>
+    <t>SCENE_3_9_EVA_1</t>
+  </si>
+  <si>
+    <t>Super! Dank je.</t>
+  </si>
+  <si>
+    <t>SCENE_3_9_DESCRIPTION_4</t>
+  </si>
+  <si>
+    <t>EVA neemt de vondst aan en zet die in de trolley.</t>
+  </si>
+  <si>
+    <t>SCENE_3_10_EVA_1</t>
+  </si>
+  <si>
+    <t>Ik denk dat je een waardevolle aanwinst voor onze groep kunt zijn. Niet iedereen is te vertrouwen weet je….</t>
+  </si>
+  <si>
+    <t>SCENE_3_10_PLAYER_1</t>
+  </si>
+  <si>
+    <t>Hoe bedoel je?</t>
+  </si>
+  <si>
+    <t>SCENE_3_10_EVA_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laat ik het hierbij houden; we zijn behoorlijk bedrogen. Dat wil ik niet nog eens meemaken… </t>
+  </si>
+  <si>
+    <t>SCENE_3_10_DESCRIPTION_1</t>
+  </si>
+  <si>
+    <t>EVA wendt zich af. Dan zie dat een van de anderen stiekem een flesje appelsap in zijn binnenzak doet. De man ziet er uitgehongerd en ziek uit. Als hij ziet dat jij hem hebt betrapt, kijkt hij je verschrikt aan.</t>
+  </si>
+  <si>
+    <t>SCENE_3_10_MARK_1</t>
+  </si>
+  <si>
+    <t>Alsjeblieft, verraad me niet…</t>
+  </si>
+  <si>
+    <t>SCENE_3_10_PLAYER_2</t>
+  </si>
+  <si>
+    <t>Je geheim is veilig bij mij.</t>
+  </si>
+  <si>
+    <t>SCENE_3_10_PLAYER_3</t>
+  </si>
+  <si>
+    <t>Die ga je zelf aan Eva geven, toch?</t>
+  </si>
+  <si>
+    <t>SCENE_3_10_PLAYER_4</t>
+  </si>
+  <si>
+    <t>Prima. Als je mij dat sap geeft.</t>
+  </si>
+  <si>
+    <t>SCENE_3_10_PLAYER_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eva! We hebben hier een dief! </t>
+  </si>
+  <si>
+    <t>SCENE_3_10_DESCRIPTION_2</t>
+  </si>
+  <si>
+    <t>De man knikt naar je. Maar dan hoor je ineens boos de stem van EVA.</t>
+  </si>
+  <si>
+    <t>SCENE_3_10_DESCRIPTION_3</t>
+  </si>
+  <si>
+    <t>Je hoort boos de stem van EVA.</t>
+  </si>
+  <si>
+    <t>SCENE_3_10_EVA_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hé! </t>
+  </si>
+  <si>
+    <t>SCENE_3_11_DESCRIPTION_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVA heeft het ook gezien en wordt kwaad op de man. Haar gezicht wordt rood en haar stem slaat over. Ze staat op en torent boven je uit. Je ziet hier een andere kant van EVA; ze lijkt een dictator. </t>
+  </si>
+  <si>
+    <t>SCENE_3_11_EVA_1</t>
+  </si>
+  <si>
+    <t>Mark! We hebben het hier over gehad! Alles wat je vindt is voor de groep!!</t>
+  </si>
+  <si>
+    <t>SCENE_3_11_MARK_1</t>
+  </si>
+  <si>
+    <t>Het spijt me. Ik voel me zo zwak... Als ik iets meer zou eten…</t>
+  </si>
+  <si>
+    <t>SCENE_3_11_EVA_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niets mee te maken. We kunnen ons geen uitzonderingen veroorloven. Je ligt eruit. </t>
+  </si>
+  <si>
+    <t>SCENE_3_11_MARK_2</t>
+  </si>
+  <si>
+    <t>Alsjeblieft Eva…</t>
+  </si>
+  <si>
+    <t>SCENE_3_11_DESCRIPTION_2</t>
+  </si>
+  <si>
+    <t>EVA twijfelt even. Dan richt ze zich tot jou.</t>
+  </si>
+  <si>
+    <t>SCENE_3_11_EVA_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wat vind jij? </t>
+  </si>
+  <si>
+    <t>SCENE_3_11_PLAYER_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regels zijn regels… </t>
+  </si>
+  <si>
+    <t>SCENE_3_11_PLAYER_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We kunnen het door de vingers zien </t>
+  </si>
+  <si>
+    <t>SCENE_3_11_PLAYER_3</t>
+  </si>
+  <si>
+    <t>Geen idee.</t>
+  </si>
+  <si>
+    <t>SCENE_3_11_DESCRIPTION_3</t>
+  </si>
+  <si>
+    <t>EVA knikt vertwijfeld.</t>
+  </si>
+  <si>
+    <t>SCENE_3_11_MARK_3</t>
+  </si>
+  <si>
+    <t>Nog één kans. Alsjeblieft. Ik overleef het hier niet alleen… Ik beloof je dat ik het nooit meer zal doen.</t>
+  </si>
+  <si>
+    <t>SCENE_3_11_EVA_4</t>
+  </si>
+  <si>
+    <t>Nog één keer Mark, en ik laat je aan je lot over…</t>
+  </si>
+  <si>
+    <t>SCENE_3_12_DESCRIPTION_1</t>
+  </si>
+  <si>
+    <t>MARK geeft het flesje aan EVA en maakt zich uit de voeten. EVA Stopt het flesje in de trolley en overhandigt je een stuk brood.</t>
+  </si>
+  <si>
+    <t>SCENE_3_12_EVA_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dank je wel voor je hulp. Je rantsoen voor vandaag heb je alvast verdiend. Maar let op; dit is dus alles wat je vandaag krijgt. </t>
+  </si>
+  <si>
+    <t>SCENE_3_12_PLAYER_1</t>
+  </si>
+  <si>
+    <t>Ik eet het direct op.</t>
+  </si>
+  <si>
+    <t>SCENE_3_12_PLAYER_2</t>
+  </si>
+  <si>
+    <t>Ik bewaar het brood voor later.</t>
+  </si>
+  <si>
+    <t>SCENE_3_12_PLAYER_3</t>
+  </si>
+  <si>
+    <t>Ik eet een beetje en bewaar de rest.</t>
+  </si>
+  <si>
+    <t>SCENE_3_12_PLAYER_4</t>
+  </si>
+  <si>
+    <t>Ik deel mijn brood met MARK.</t>
+  </si>
+  <si>
+    <t>SCENE_3_12_DESCRIPTION_2</t>
+  </si>
+  <si>
+    <t>Je gooit een stuk van je brood naar MARK. Die vangt het op en kijkt je dankbaar aan.</t>
+  </si>
+  <si>
+    <t>SCENE_3_12_MARK_1</t>
+  </si>
+  <si>
+    <t>Dank je wel!</t>
+  </si>
+  <si>
+    <t>SCENE_3_13_EVA_1</t>
+  </si>
+  <si>
+    <t>Laten we gaan. Het wordt tijd om op zoek te gaan naar voedsel en drinkwater. Ik verwacht dat we pas in de nacht terug zullen zijn en ik ben bang dat we niet genoeg slaapplaatsen hebben... Dat zou vanavond een probleem kunnen worden…</t>
+  </si>
+  <si>
+    <t>SCENE_3_13_PLAYER_1</t>
+  </si>
+  <si>
+    <t>Geen probleem! Ik slaap wel op de grond.</t>
+  </si>
+  <si>
+    <t>SCENE_3_13_PLAYER_2</t>
+  </si>
+  <si>
+    <t>Ik verwacht wel een bed hoor.</t>
+  </si>
+  <si>
+    <t>SCENE_3_13_PLAYER_3</t>
+  </si>
+  <si>
+    <t>Ik vind dat we moeten rouleren.</t>
+  </si>
+  <si>
+    <t>SCENE_3_13_PLAYER_4</t>
+  </si>
+  <si>
+    <t>Kunnen we samen een nieuw bed maken?</t>
+  </si>
+  <si>
+    <t>SCENE_3_13_EVA_2</t>
+  </si>
+  <si>
+    <t>Weet je wat, we dealen hier vannacht wel mee. Laten we gaan voordat het donker wordt…</t>
+  </si>
+  <si>
+    <t>SCENE_3_13_DESCRIPTION_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je volgt EVA over het strand en daarna over wat vroeger de bosweg was. </t>
+  </si>
+  <si>
+    <t>SCENE_3_14_DESCRIPTION_1</t>
+  </si>
+  <si>
+    <t>We zijn op een open plek in het bos. Het beeld is weer zwart/wit/sepia. De open plek laat een archeologische opgraving zien. Een deel van de grond is afgegraven en er zijn twee mensen bezig met scheppen, beiteltjes en kwasten. De zon schijnt fel en de archeologen dragen hoeden en zonnebrillen, alles jaren ’50 stijl. 
+Aan de rand van de opgraving staat de jeep die we eerder zagen geparkeerd. Daarnaast een tent waarin een lange schragentafel staat met een uitstalling van fossiele vondsten.
+De JONGE ARCHEOLOOG met de Indiana Jones-hoed en jaren ’50 archeologen-kleding, staat aan de rand van de opgravingen en overziet het gebeuren. Een van de collega’s in de opgraving staat op en loopt naar hem toe. DE JONGE ARCHEOLOOG haalt een vergrootglas uit zijn borstzak. Het is een mooi antiek vergrootglas van zilver met langs de rand een paar elegante jugendstil-elementen. DE JONGE ARCHEOLOOG bekijkt de vondst van zijn collega met grote ernst.</t>
   </si>
 </sst>
 </file>
@@ -580,7 +1924,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -590,6 +1934,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,23 +1956,111 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1006,786 +2444,2740 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E95"/>
+  <dimension ref="A1:E348"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" customWidth="1"/>
-    <col min="2" max="5" width="42.85546875" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" style="1" customWidth="1"/>
+    <col min="2" max="5" width="42.85546875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
+      <c r="A5" s="3" t="s">
+        <v>174</v>
+      </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C11" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C12" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C13" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C14" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+    <row r="15" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B16" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B17" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B19" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B20" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B22" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B23" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B24" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B25" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B26" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B27" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B29" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B30" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B31" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B32" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B33" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B35" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B36" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B37" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B38" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B39" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B40" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B41" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B43" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B44" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B45" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B46" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B47" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B48" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B50" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B51" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B52" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B53" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B54" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B55" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-    </row>
-    <row r="55" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+    </row>
+    <row r="57" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B57" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B58" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B59" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B60" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B61" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B62" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B64" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B65" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B66" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B67" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B68" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B69" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B70" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B72" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="73" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B73" s="6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B74" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B75" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B76" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B77" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="4"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B79" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B80" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B81" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B82" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B83" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B84" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B86" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="87" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B87" s="6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B88" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B89" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B90" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B91" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="4"/>
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-    </row>
-    <row r="91" spans="1:3" ht="180" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="5"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+    </row>
+    <row r="93" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B93" s="6" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B94" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B95" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="4"/>
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="5" t="s">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B97" s="1" t="s">
         <v>173</v>
       </c>
     </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="7"/>
+      <c r="B98" s="7"/>
+      <c r="C98" s="7"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="5"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="5"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="5"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="5"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="5"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="5"/>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="5"/>
+      <c r="B141" s="5"/>
+      <c r="C141" s="5"/>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="5"/>
+      <c r="B147" s="5"/>
+      <c r="C147" s="5"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="5"/>
+      <c r="B152" s="5"/>
+      <c r="C152" s="5"/>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="5"/>
+      <c r="B162" s="5"/>
+      <c r="C162" s="5"/>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="5"/>
+      <c r="B173" s="5"/>
+      <c r="C173" s="5"/>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="5"/>
+      <c r="B176" s="5"/>
+      <c r="C176" s="5"/>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="5"/>
+      <c r="B184" s="5"/>
+      <c r="C184" s="5"/>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="5"/>
+      <c r="B191" s="5"/>
+      <c r="C191" s="5"/>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="5"/>
+      <c r="B198" s="5"/>
+      <c r="C198" s="5"/>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="5"/>
+      <c r="B203" s="5"/>
+      <c r="C203" s="5"/>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="5"/>
+      <c r="B212" s="5"/>
+      <c r="C212" s="5"/>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="7"/>
+      <c r="B214" s="7"/>
+      <c r="C214" s="7"/>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B217" s="6" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B218" s="6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="5"/>
+      <c r="B229" s="5"/>
+      <c r="C229" s="5"/>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="5"/>
+      <c r="B236" s="5"/>
+      <c r="C236" s="5"/>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B240" s="6" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B242" s="6" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B244" s="6" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B246" s="6" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B248" s="6" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="5"/>
+      <c r="B250" s="5"/>
+      <c r="C250" s="5"/>
+    </row>
+    <row r="251" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B251" s="6" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="5"/>
+      <c r="B257" s="5"/>
+      <c r="C257" s="5"/>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="5"/>
+      <c r="B264" s="5"/>
+      <c r="C264" s="5"/>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B277" s="6" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="5"/>
+      <c r="B278" s="5"/>
+      <c r="C278" s="5"/>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="5"/>
+      <c r="B285" s="5"/>
+      <c r="C285" s="5"/>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="5"/>
+      <c r="B293" s="5"/>
+      <c r="C293" s="5"/>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="5"/>
+      <c r="B303" s="5"/>
+      <c r="C303" s="5"/>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" s="5"/>
+      <c r="B316" s="5"/>
+      <c r="C316" s="5"/>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B318" s="6" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" s="5"/>
+      <c r="B330" s="5"/>
+      <c r="C330" s="5"/>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" s="5"/>
+      <c r="B339" s="5"/>
+      <c r="C339" s="5"/>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" s="5"/>
+      <c r="B347" s="5"/>
+      <c r="C347" s="5"/>
+    </row>
+    <row r="348" spans="1:3" ht="345" x14ac:dyDescent="0.25">
+      <c r="A348" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B348" s="6" t="s">
+        <v>616</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="MARK">
+      <formula>NOT(ISERROR(SEARCH("MARK",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="OLDMAN">
+      <formula>NOT(ISERROR(SEARCH("OLDMAN",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="EVA">
+      <formula>NOT(ISERROR(SEARCH("EVA",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="STEWARDESS">
+      <formula>NOT(ISERROR(SEARCH("STEWARDESS",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="PLAYER">
+      <formula>NOT(ISERROR(SEARCH("PLAYER",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
